--- a/xlsx/country_comparison/climate_policies_share.xlsx
+++ b/xlsx/country_comparison/climate_policies_share.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.686274509803922</v>
+        <v>0.744897959183674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.807692307692308</v>
+        <v>0.689922480620155</v>
       </c>
       <c r="D2" t="n">
-        <v>0.869565217391304</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.74468085106383</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.558823529411765</v>
+        <v>0.550356052899288</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.673469387755102</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.835714285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>0.916666666666667</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.728571428571429</v>
+        <v>0.678188899707887</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.714285714285714</v>
+        <v>0.76530612244898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.652173913043478</v>
+        <v>0.817460317460317</v>
       </c>
       <c r="D4" t="n">
-        <v>0.80952380952381</v>
+        <v>0.71875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.59375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.615384615384615</v>
+        <v>0.592405063291139</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_share.xlsx
+++ b/xlsx/country_comparison/climate_policies_share.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.744897959183674</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.689922480620155</v>
+        <v>0.689716312056738</v>
       </c>
       <c r="D2" t="n">
-        <v>0.765957446808511</v>
+        <v>0.804147465437788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.655172413793103</v>
+        <v>0.667359667359667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.550356052899288</v>
+        <v>0.550151975683891</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.810526315789474</v>
+        <v>0.803455723542117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.835714285714286</v>
+        <v>0.823333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.842105263157895</v>
+        <v>0.850678733031674</v>
       </c>
       <c r="E3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.678188899707887</v>
+        <v>0.677653902084343</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.76530612244898</v>
+        <v>0.741721854304636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.817460317460317</v>
+        <v>0.79020979020979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71875</v>
+        <v>0.775229357798165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.59375</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.592405063291139</v>
+        <v>0.592648539778449</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_share.xlsx
+++ b/xlsx/country_comparison/climate_policies_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.686274509803922</v>
+        <v>0.538044440029806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.689716312056738</v>
+        <v>0.702469990857743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.804147465437788</v>
+        <v>0.707293188123593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.667359667359667</v>
+        <v>0.678531476441131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.550151975683891</v>
+        <v>0.795005097178626</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.715842408378674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.803455723542117</v>
+        <v>0.668478309868828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.823333333333333</v>
+        <v>0.816969818943951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.850678733031674</v>
+        <v>0.828243452528983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.798850574712644</v>
+        <v>0.808344622780676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.677653902084343</v>
+        <v>0.866080609608524</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.788739473201268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.741721854304636</v>
+        <v>0.586361547078264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.79020979020979</v>
+        <v>0.761213696055523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.775229357798165</v>
+        <v>0.767545156610846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.709090909090909</v>
+        <v>0.783881851539796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.592648539778449</v>
+        <v>0.778077888822029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.736775434783277</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_share.xlsx
+++ b/xlsx/country_comparison/climate_policies_share.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538044440029806</v>
+        <v>0.552678615780989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.702469990857743</v>
+        <v>0.713413135388996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.707293188123593</v>
+        <v>0.717199697245484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.678531476441131</v>
+        <v>0.696389175773997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.795005097178626</v>
+        <v>0.793363188904658</v>
       </c>
       <c r="G2" t="n">
-        <v>0.715842408378674</v>
+        <v>0.700082533617769</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.668478309868828</v>
+        <v>0.683804554832922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.816969818943951</v>
+        <v>0.819803356868124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828243452528983</v>
+        <v>0.820949579313687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.808344622780676</v>
+        <v>0.816172410745393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.866080609608524</v>
+        <v>0.872967061466119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788739473201268</v>
+        <v>0.805354026589349</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.586361547078264</v>
+        <v>0.601196598643365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761213696055523</v>
+        <v>0.762013274854374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.767545156610846</v>
+        <v>0.768881175996354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.783881851539796</v>
+        <v>0.787420304969964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.778077888822029</v>
+        <v>0.78328120876413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.736775434783277</v>
+        <v>0.713805249434274</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_share.xlsx
+++ b/xlsx/country_comparison/climate_policies_share.xlsx
@@ -35,13 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
 </sst>
 </file>
@@ -401,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552678615780989</v>
+        <v>0.552728777265518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.713413135388996</v>
+        <v>0.714657631857914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717199697245484</v>
+        <v>0.717102495286766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.696389175773997</v>
+        <v>0.696388097239499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.793363188904658</v>
+        <v>0.789812073785779</v>
       </c>
       <c r="G2" t="n">
-        <v>0.700082533617769</v>
+        <v>0.700061649480014</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.683804554832922</v>
+        <v>0.683819916214763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819803356868124</v>
+        <v>0.819558096525353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.820949579313687</v>
+        <v>0.820875807741039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.816172410745393</v>
+        <v>0.816184257428338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.872967061466119</v>
+        <v>0.853647571464666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805354026589349</v>
+        <v>0.805326640783647</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.601196598643365</v>
+        <v>0.601228048137448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762013274854374</v>
+        <v>0.764763757253406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.768881175996354</v>
+        <v>0.768792763691463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.787420304969964</v>
+        <v>0.787427489951403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.78328120876413</v>
+        <v>0.793533860250774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.713805249434274</v>
+        <v>0.713804625162365</v>
       </c>
     </row>
   </sheetData>
